--- a/biology/Botanique/Chicorée_endive/Chicorée_endive.xlsx
+++ b/biology/Botanique/Chicorée_endive/Chicorée_endive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_endive</t>
+          <t>Chicorée_endive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cichorium endivia · Endive, Chicorée de Belgique, Chicorée à rameaux, Chicorée
 La chicorée endive (Cichorium endivia L.) est une espèce annuelle de la famille des asteracées originaire du bassin méditerranéen dont les feuilles sont consommées en salade (depuis l'Antiquité) ou cuites. Il en existe plusieurs variétés, notamment les scaroles à feuilles larges et les frisées à feuilles plus découpées.
-Cette espèce est l'« endive vraie » au sens strict de la botanique. Elle ne doit pas être confondue avec l'endive des étals. Cette dernière, appelée « chicon » en Belgique et dans le nord de la France, est en fait issue de l'espèce Cichorium intybus, la chicorée sauvage ou amère, une chicorée très proche de Cichorium endivia, qui ne s'en distingue que par des détails morphologiques minimes[1],[2].
-On la cultive encore comme plante potagère, principalement pour son feuillage, récolté surtout de la fin de l'été à la fin de l'hiver, et naturellement moins amer que celui de l'espèce voisine. C'est une espèce autofertile qu'il est possible pourtant, bien qu'avec difficulté, de croiser avec les autres chicorées pour obtenir des hybrides[1].
+Cette espèce est l'« endive vraie » au sens strict de la botanique. Elle ne doit pas être confondue avec l'endive des étals. Cette dernière, appelée « chicon » en Belgique et dans le nord de la France, est en fait issue de l'espèce Cichorium intybus, la chicorée sauvage ou amère, une chicorée très proche de Cichorium endivia, qui ne s'en distingue que par des détails morphologiques minimes,.
+On la cultive encore comme plante potagère, principalement pour son feuillage, récolté surtout de la fin de l'été à la fin de l'hiver, et naturellement moins amer que celui de l'espèce voisine. C'est une espèce autofertile qu'il est possible pourtant, bien qu'avec difficulté, de croiser avec les autres chicorées pour obtenir des hybrides.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_endive</t>
+          <t>Chicorée_endive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom scientifique valide : Cichorium endivia  L.
-Noms vulgaires (vulgarisation scientifique) : Chicorée endive[3],[4],[5], Endive[6],[3],[5], Chicorée de Belgique[4]
-Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : Chicorée à rameaux[6], chicorée[5]
-la variété cultivée à feuilles découpées : chicorée frisée[3],[4]
-la variété cultivée à larges feuilles : chicorée scarole[3], scarole[7],[3],[4] ou escarole[7],[3].
+Noms vulgaires (vulgarisation scientifique) : Chicorée endive Endive Chicorée de Belgique
+Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : Chicorée à rameaux, chicorée
+la variété cultivée à feuilles découpées : chicorée frisée,
+la variété cultivée à larges feuilles : chicorée scarole, scarole ou escarole,.
 Dans d'autres langues, cette espèce se nomme par exemple endive en anglais, Endivie en allemand et escarola en espagnol.
 </t>
         </is>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_endive</t>
+          <t>Chicorée_endive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante sauvage est répandue dans le sud de l'Europe comme dans le nord de l'Afrique, mais elle peut aussi pousser de façon spontanée en Orient et aux Indes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante sauvage est répandue dans le sud de l'Europe comme dans le nord de l'Afrique, mais elle peut aussi pousser de façon spontanée en Orient et aux Indes.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_endive</t>
+          <t>Chicorée_endive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,20 +597,13 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nombreuses variétés cultivées de la chicorée endive forment deux groupes : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les nombreuses variétés cultivées de la chicorée endive forment deux groupes : 
 Cichorium endivia var. crispum Lam. - les chicorées frisées
-Cichorium endivia var. latifolium Lam. - les chicorées scaroles
-Chicorée frisée
-La variété appelée Chicorée frisée (Cichorium endivia var. crispum) présente une rosette constituée de nombreuses feuilles étalées, profondément découpées et crispées, glabres et plus ou moins dentelées[1].
-Elle se décline en de nombreux cultivars ou types : 'Gloire de l'Exposition', 'Wallonne', 'Grosse pommant seule', 'D'été à cœur jaune', 'Frisée de Meaux', 'Frisée d'hiver de Provence', 'Très fine maraîchère', 'Reine d'hiver'...
-Chicorée scarole
-La variété appelée Chicorée scarole (Cichorium endivia var. latifolium) présente un feuillage plus large, entier mais denté ou ondulé sur les bords, qui se replie vers le cœur de la plante[1]. Elle se conserve mieux que la précédente.
-Elle se décline aussi en de nombreux cultivars ou types : 'Géante maraîchère', 'Cornet', 'Cornet d'Anjou', 'Cornet de Bordeaux', 'Grosse bouclée', 'À Cœur plein', 'Ronde verte à cœur plein', 'Blonde à cœur plein'...
-Chicorée frisée-scarole
-Un type intermédiaire de chicorées est obtenu par croisement. Elles ont les feuilles plus ou moins - selon la sélection - de la taille d'une scarole avec la découpe d'une chicorée frisée[1].
-</t>
+Cichorium endivia var. latifolium Lam. - les chicorées scaroles</t>
         </is>
       </c>
     </row>
@@ -604,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_endive</t>
+          <t>Chicorée_endive</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,14 +628,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chicorée frisée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété appelée Chicorée frisée (Cichorium endivia var. crispum) présente une rosette constituée de nombreuses feuilles étalées, profondément découpées et crispées, glabres et plus ou moins dentelées.
+Elle se décline en de nombreux cultivars ou types : 'Gloire de l'Exposition', 'Wallonne', 'Grosse pommant seule', 'D'été à cœur jaune', 'Frisée de Meaux', 'Frisée d'hiver de Provence', 'Très fine maraîchère', 'Reine d'hiver'...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chicorée_endive</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicor%C3%A9e_endive</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chicorée scarole</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété appelée Chicorée scarole (Cichorium endivia var. latifolium) présente un feuillage plus large, entier mais denté ou ondulé sur les bords, qui se replie vers le cœur de la plante. Elle se conserve mieux que la précédente.
+Elle se décline aussi en de nombreux cultivars ou types : 'Géante maraîchère', 'Cornet', 'Cornet d'Anjou', 'Cornet de Bordeaux', 'Grosse bouclée', 'À Cœur plein', 'Ronde verte à cœur plein', 'Blonde à cœur plein'...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chicorée_endive</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicor%C3%A9e_endive</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chicorée frisée-scarole</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un type intermédiaire de chicorées est obtenu par croisement. Elles ont les feuilles plus ou moins - selon la sélection - de la taille d'une scarole avec la découpe d'une chicorée frisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chicorée_endive</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicor%C3%A9e_endive</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Cichorium endivia a été décrite pour la première fois en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (28 mai 2014)[8] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cichorium endivia a été décrite pour la première fois en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chicorée_endive</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicor%C3%A9e_endive</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (28 mai 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Cichorium endivia subsp. divaricatum (Schousb.) P.D. Sell
 sous-espèce Cichorium endivia subsp. endivia
 variété Cichorium endivia var. crispum (Mill.) Lam.
@@ -635,33 +794,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chicor%C3%A9e_endive</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chicor%C3%A9e_endive</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chicorée_endive</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chicor%C3%A9e_endive</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1994, la production française se montait à 62 000 t/an de chicorée frisée et 82 000 t/an de scarole[1]. 
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1994, la production française se montait à 62 000 t/an de chicorée frisée et 82 000 t/an de scarole. 
 </t>
         </is>
       </c>
